--- a/ORG_UNIT.xlsx
+++ b/ORG_UNIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7E3369-D041-4810-ADE8-EE1C2163144F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64478241-6624-4A7D-9135-29B336CFCF16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="800">
   <si>
     <t>ORG_UNIT_PK</t>
   </si>
@@ -2411,6 +2411,15 @@
   </si>
   <si>
     <t>หน่วย SPOOKY</t>
+  </si>
+  <si>
+    <t>ORG_UNIT_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_UNIT_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_UNIT_STATUS</t>
   </si>
 </sst>
 </file>
@@ -2731,20 +2740,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C635"/>
+  <dimension ref="A1:F635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A613" workbookViewId="0">
-      <selection activeCell="D627" sqref="D627"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
-    <col min="2" max="3" width="38.26953125" customWidth="1"/>
-    <col min="4" max="11" width="26.08984375" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="3" width="38.28515625" customWidth="1"/>
+    <col min="4" max="11" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2754,8 +2763,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>33001</v>
       </c>
@@ -2766,7 +2784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>33002</v>
       </c>
@@ -2777,7 +2795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>33003</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>33004</v>
       </c>
@@ -2799,7 +2817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>33005</v>
       </c>
@@ -2810,7 +2828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>33006</v>
       </c>
@@ -2821,7 +2839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>33007</v>
       </c>
@@ -2832,7 +2850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>33008</v>
       </c>
@@ -2843,7 +2861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>33009</v>
       </c>
@@ -2852,7 +2870,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>33010</v>
       </c>
@@ -2861,7 +2879,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>33011</v>
       </c>
@@ -2872,7 +2890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>33012</v>
       </c>
@@ -2883,7 +2901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>33013</v>
       </c>
@@ -2894,7 +2912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>33014</v>
       </c>
@@ -2905,7 +2923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>33015</v>
       </c>
@@ -2916,7 +2934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>33016</v>
       </c>
@@ -2927,7 +2945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>33017</v>
       </c>
@@ -2938,7 +2956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>33018</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>33019</v>
       </c>
@@ -2960,7 +2978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>33020</v>
       </c>
@@ -2971,7 +2989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>33021</v>
       </c>
@@ -2982,7 +3000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>33022</v>
       </c>
@@ -2993,7 +3011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>33023</v>
       </c>
@@ -3004,7 +3022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>33024</v>
       </c>
@@ -3015,7 +3033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>33025</v>
       </c>
@@ -3026,7 +3044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>33026</v>
       </c>
@@ -3037,7 +3055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>33027</v>
       </c>
@@ -3048,7 +3066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>33028</v>
       </c>
@@ -3059,7 +3077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>33029</v>
       </c>
@@ -3070,7 +3088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>33030</v>
       </c>
@@ -3081,7 +3099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>33031</v>
       </c>
@@ -3092,7 +3110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33032</v>
       </c>
@@ -3103,7 +3121,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33033</v>
       </c>
@@ -3114,7 +3132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33034</v>
       </c>
@@ -3125,7 +3143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33035</v>
       </c>
@@ -3136,7 +3154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33036</v>
       </c>
@@ -3147,7 +3165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>33037</v>
       </c>
@@ -3158,7 +3176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>33038</v>
       </c>
@@ -3169,7 +3187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>33039</v>
       </c>
@@ -3180,7 +3198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>33040</v>
       </c>
@@ -3191,7 +3209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>33041</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>33042</v>
       </c>
@@ -3213,7 +3231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>33043</v>
       </c>
@@ -3224,7 +3242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>33044</v>
       </c>
@@ -3235,7 +3253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>33045</v>
       </c>
@@ -3246,7 +3264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>33046</v>
       </c>
@@ -3257,7 +3275,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>33047</v>
       </c>
@@ -3268,7 +3286,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>33048</v>
       </c>
@@ -3279,7 +3297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>33049</v>
       </c>
@@ -3290,7 +3308,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>33050</v>
       </c>
@@ -3299,7 +3317,7 @@
       </c>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>33051</v>
       </c>
@@ -3310,7 +3328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>33052</v>
       </c>
@@ -3321,7 +3339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>33053</v>
       </c>
@@ -3332,7 +3350,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>33054</v>
       </c>
@@ -3343,7 +3361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>33055</v>
       </c>
@@ -3354,7 +3372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>33056</v>
       </c>
@@ -3365,7 +3383,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>33057</v>
       </c>
@@ -3376,7 +3394,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>33058</v>
       </c>
@@ -3387,7 +3405,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>33059</v>
       </c>
@@ -3398,7 +3416,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>33060</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>33061</v>
       </c>
@@ -3420,7 +3438,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>33062</v>
       </c>
@@ -3431,7 +3449,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>33063</v>
       </c>
@@ -3442,7 +3460,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>33064</v>
       </c>
@@ -3453,7 +3471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>33065</v>
       </c>
@@ -3464,7 +3482,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>33066</v>
       </c>
@@ -3475,7 +3493,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>33067</v>
       </c>
@@ -3486,7 +3504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>33068</v>
       </c>
@@ -3497,7 +3515,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>33069</v>
       </c>
@@ -3508,7 +3526,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>33070</v>
       </c>
@@ -3519,7 +3537,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>33071</v>
       </c>
@@ -3530,7 +3548,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>33072</v>
       </c>
@@ -3541,7 +3559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>33073</v>
       </c>
@@ -3552,7 +3570,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>33074</v>
       </c>
@@ -3563,7 +3581,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>33075</v>
       </c>
@@ -3574,7 +3592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>33076</v>
       </c>
@@ -3585,7 +3603,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>33077</v>
       </c>
@@ -3596,7 +3614,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>33078</v>
       </c>
@@ -3607,7 +3625,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>33079</v>
       </c>
@@ -3618,7 +3636,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>33080</v>
       </c>
@@ -3629,7 +3647,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>33081</v>
       </c>
@@ -3640,7 +3658,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>33082</v>
       </c>
@@ -3651,7 +3669,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>33083</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>33084</v>
       </c>
@@ -3673,7 +3691,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>33085</v>
       </c>
@@ -3684,7 +3702,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>33086</v>
       </c>
@@ -3695,7 +3713,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>33087</v>
       </c>
@@ -3706,7 +3724,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>33088</v>
       </c>
@@ -3717,7 +3735,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>33089</v>
       </c>
@@ -3728,7 +3746,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>33090</v>
       </c>
@@ -3739,7 +3757,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>33091</v>
       </c>
@@ -3750,7 +3768,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>33092</v>
       </c>
@@ -3761,7 +3779,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>33093</v>
       </c>
@@ -3772,7 +3790,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>33094</v>
       </c>
@@ -3783,7 +3801,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>33095</v>
       </c>
@@ -3794,7 +3812,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>33096</v>
       </c>
@@ -3805,7 +3823,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>33097</v>
       </c>
@@ -3816,7 +3834,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>33098</v>
       </c>
@@ -3827,7 +3845,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>33099</v>
       </c>
@@ -3838,7 +3856,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>33100</v>
       </c>
@@ -3849,7 +3867,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>33101</v>
       </c>
@@ -3860,7 +3878,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>33102</v>
       </c>
@@ -3871,7 +3889,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>33103</v>
       </c>
@@ -3882,7 +3900,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>33104</v>
       </c>
@@ -3893,7 +3911,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>33105</v>
       </c>
@@ -3904,7 +3922,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>33106</v>
       </c>
@@ -3915,7 +3933,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>33107</v>
       </c>
@@ -3926,7 +3944,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>33108</v>
       </c>
@@ -3937,7 +3955,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>33109</v>
       </c>
@@ -3948,7 +3966,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>33110</v>
       </c>
@@ -3959,7 +3977,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>33111</v>
       </c>
@@ -3970,7 +3988,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>33112</v>
       </c>
@@ -3981,7 +3999,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>33113</v>
       </c>
@@ -3992,7 +4010,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>33114</v>
       </c>
@@ -4003,7 +4021,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>33115</v>
       </c>
@@ -4014,7 +4032,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>33116</v>
       </c>
@@ -4025,7 +4043,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>33117</v>
       </c>
@@ -4036,7 +4054,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>33118</v>
       </c>
@@ -4047,7 +4065,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>33119</v>
       </c>
@@ -4058,7 +4076,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>33120</v>
       </c>
@@ -4069,7 +4087,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>33121</v>
       </c>
@@ -4080,7 +4098,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>33122</v>
       </c>
@@ -4091,7 +4109,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>33123</v>
       </c>
@@ -4102,7 +4120,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>33124</v>
       </c>
@@ -4113,7 +4131,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>33125</v>
       </c>
@@ -4124,7 +4142,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>33126</v>
       </c>
@@ -4135,7 +4153,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>33127</v>
       </c>
@@ -4146,7 +4164,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>33128</v>
       </c>
@@ -4157,7 +4175,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>33129</v>
       </c>
@@ -4168,7 +4186,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>33130</v>
       </c>
@@ -4179,7 +4197,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>33131</v>
       </c>
@@ -4190,7 +4208,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>33132</v>
       </c>
@@ -4201,7 +4219,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>33133</v>
       </c>
@@ -4212,7 +4230,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>33134</v>
       </c>
@@ -4223,7 +4241,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>33135</v>
       </c>
@@ -4234,7 +4252,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>33136</v>
       </c>
@@ -4245,7 +4263,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>33137</v>
       </c>
@@ -4256,7 +4274,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>33138</v>
       </c>
@@ -4267,7 +4285,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>33139</v>
       </c>
@@ -4278,7 +4296,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>33140</v>
       </c>
@@ -4289,7 +4307,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>33141</v>
       </c>
@@ -4300,7 +4318,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>33142</v>
       </c>
@@ -4311,7 +4329,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>33143</v>
       </c>
@@ -4322,7 +4340,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>33144</v>
       </c>
@@ -4333,7 +4351,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>33145</v>
       </c>
@@ -4344,7 +4362,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>33146</v>
       </c>
@@ -4355,7 +4373,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>33147</v>
       </c>
@@ -4366,7 +4384,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>33148</v>
       </c>
@@ -4377,7 +4395,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>33149</v>
       </c>
@@ -4388,7 +4406,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>33150</v>
       </c>
@@ -4399,7 +4417,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>33151</v>
       </c>
@@ -4410,7 +4428,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>33152</v>
       </c>
@@ -4421,7 +4439,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>33153</v>
       </c>
@@ -4432,7 +4450,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>33154</v>
       </c>
@@ -4443,7 +4461,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>33155</v>
       </c>
@@ -4454,7 +4472,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>33156</v>
       </c>
@@ -4465,7 +4483,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>33157</v>
       </c>
@@ -4476,7 +4494,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>33158</v>
       </c>
@@ -4487,7 +4505,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>33159</v>
       </c>
@@ -4498,7 +4516,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>33160</v>
       </c>
@@ -4509,7 +4527,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>33161</v>
       </c>
@@ -4520,7 +4538,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>33162</v>
       </c>
@@ -4531,7 +4549,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>33163</v>
       </c>
@@ -4542,7 +4560,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>33164</v>
       </c>
@@ -4553,7 +4571,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>33165</v>
       </c>
@@ -4564,7 +4582,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>33166</v>
       </c>
@@ -4575,7 +4593,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>33167</v>
       </c>
@@ -4586,7 +4604,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>33168</v>
       </c>
@@ -4597,7 +4615,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>33169</v>
       </c>
@@ -4608,7 +4626,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>33170</v>
       </c>
@@ -4619,7 +4637,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>33171</v>
       </c>
@@ -4630,7 +4648,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>33172</v>
       </c>
@@ -4641,7 +4659,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>33173</v>
       </c>
@@ -4652,7 +4670,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>33174</v>
       </c>
@@ -4663,7 +4681,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>33175</v>
       </c>
@@ -4674,7 +4692,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>33176</v>
       </c>
@@ -4685,7 +4703,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>33177</v>
       </c>
@@ -4696,7 +4714,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>33178</v>
       </c>
@@ -4707,7 +4725,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>33179</v>
       </c>
@@ -4718,7 +4736,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>33180</v>
       </c>
@@ -4729,7 +4747,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>33181</v>
       </c>
@@ -4740,7 +4758,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>33182</v>
       </c>
@@ -4751,7 +4769,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>33183</v>
       </c>
@@ -4762,7 +4780,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>33184</v>
       </c>
@@ -4773,7 +4791,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>33185</v>
       </c>
@@ -4784,7 +4802,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>33186</v>
       </c>
@@ -4795,7 +4813,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>33187</v>
       </c>
@@ -4806,7 +4824,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>33188</v>
       </c>
@@ -4817,7 +4835,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>33189</v>
       </c>
@@ -4828,7 +4846,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>33190</v>
       </c>
@@ -4839,7 +4857,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>33191</v>
       </c>
@@ -4850,7 +4868,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>33192</v>
       </c>
@@ -4861,7 +4879,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>33193</v>
       </c>
@@ -4872,7 +4890,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>33194</v>
       </c>
@@ -4883,7 +4901,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>33195</v>
       </c>
@@ -4894,7 +4912,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>33196</v>
       </c>
@@ -4905,7 +4923,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>33197</v>
       </c>
@@ -4916,7 +4934,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>33198</v>
       </c>
@@ -4927,7 +4945,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>33199</v>
       </c>
@@ -4938,7 +4956,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>33200</v>
       </c>
@@ -4949,7 +4967,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>33201</v>
       </c>
@@ -4960,7 +4978,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>33202</v>
       </c>
@@ -4971,7 +4989,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>33203</v>
       </c>
@@ -4982,7 +5000,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>33204</v>
       </c>
@@ -4993,7 +5011,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>33205</v>
       </c>
@@ -5004,7 +5022,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>33206</v>
       </c>
@@ -5013,7 +5031,7 @@
       </c>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>33207</v>
       </c>
@@ -5024,7 +5042,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>33208</v>
       </c>
@@ -5035,7 +5053,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>33209</v>
       </c>
@@ -5046,7 +5064,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>33210</v>
       </c>
@@ -5057,7 +5075,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>33211</v>
       </c>
@@ -5068,7 +5086,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>33212</v>
       </c>
@@ -5079,7 +5097,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>33213</v>
       </c>
@@ -5090,7 +5108,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>33214</v>
       </c>
@@ -5101,7 +5119,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>33215</v>
       </c>
@@ -5112,7 +5130,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>33216</v>
       </c>
@@ -5123,7 +5141,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>33217</v>
       </c>
@@ -5134,7 +5152,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>33218</v>
       </c>
@@ -5145,7 +5163,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>33219</v>
       </c>
@@ -5156,7 +5174,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>33220</v>
       </c>
@@ -5167,7 +5185,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>33221</v>
       </c>
@@ -5178,7 +5196,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>33222</v>
       </c>
@@ -5189,7 +5207,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>33223</v>
       </c>
@@ -5200,7 +5218,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>33224</v>
       </c>
@@ -5211,7 +5229,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>33225</v>
       </c>
@@ -5222,7 +5240,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>33226</v>
       </c>
@@ -5233,7 +5251,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>33227</v>
       </c>
@@ -5244,7 +5262,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>33228</v>
       </c>
@@ -5255,7 +5273,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>33229</v>
       </c>
@@ -5266,7 +5284,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>33230</v>
       </c>
@@ -5277,7 +5295,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>33231</v>
       </c>
@@ -5288,7 +5306,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>33232</v>
       </c>
@@ -5299,7 +5317,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>33233</v>
       </c>
@@ -5310,7 +5328,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>33234</v>
       </c>
@@ -5321,7 +5339,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>33235</v>
       </c>
@@ -5332,7 +5350,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>33236</v>
       </c>
@@ -5343,7 +5361,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>33237</v>
       </c>
@@ -5354,7 +5372,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>33238</v>
       </c>
@@ -5365,7 +5383,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>33239</v>
       </c>
@@ -5376,7 +5394,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>33240</v>
       </c>
@@ -5387,7 +5405,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>33241</v>
       </c>
@@ -5398,7 +5416,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>33242</v>
       </c>
@@ -5409,7 +5427,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>33243</v>
       </c>
@@ -5420,7 +5438,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>33244</v>
       </c>
@@ -5431,7 +5449,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>33245</v>
       </c>
@@ -5442,7 +5460,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>33246</v>
       </c>
@@ -5453,7 +5471,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>33247</v>
       </c>
@@ -5464,7 +5482,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>33248</v>
       </c>
@@ -5475,7 +5493,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>33249</v>
       </c>
@@ -5486,7 +5504,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>33250</v>
       </c>
@@ -5497,7 +5515,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>33251</v>
       </c>
@@ -5508,7 +5526,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>33252</v>
       </c>
@@ -5519,7 +5537,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>33253</v>
       </c>
@@ -5530,7 +5548,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>33254</v>
       </c>
@@ -5541,7 +5559,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>33255</v>
       </c>
@@ -5552,7 +5570,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>33256</v>
       </c>
@@ -5563,7 +5581,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>33257</v>
       </c>
@@ -5574,7 +5592,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>33258</v>
       </c>
@@ -5585,7 +5603,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>33259</v>
       </c>
@@ -5596,7 +5614,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>33260</v>
       </c>
@@ -5607,7 +5625,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>33261</v>
       </c>
@@ -5618,7 +5636,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>33262</v>
       </c>
@@ -5629,7 +5647,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>33263</v>
       </c>
@@ -5640,7 +5658,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>33264</v>
       </c>
@@ -5651,7 +5669,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>33265</v>
       </c>
@@ -5662,7 +5680,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>33266</v>
       </c>
@@ -5673,7 +5691,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>33267</v>
       </c>
@@ -5684,7 +5702,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>33268</v>
       </c>
@@ -5695,7 +5713,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>33269</v>
       </c>
@@ -5706,7 +5724,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>33270</v>
       </c>
@@ -5717,7 +5735,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>33271</v>
       </c>
@@ -5728,7 +5746,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>33272</v>
       </c>
@@ -5739,7 +5757,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>33273</v>
       </c>
@@ -5750,7 +5768,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>33274</v>
       </c>
@@ -5761,7 +5779,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>33275</v>
       </c>
@@ -5772,7 +5790,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>33276</v>
       </c>
@@ -5783,7 +5801,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>33277</v>
       </c>
@@ -5794,7 +5812,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>33278</v>
       </c>
@@ -5805,7 +5823,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>33279</v>
       </c>
@@ -5816,7 +5834,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>33280</v>
       </c>
@@ -5827,7 +5845,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>33281</v>
       </c>
@@ -5838,7 +5856,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>33282</v>
       </c>
@@ -5849,7 +5867,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>33283</v>
       </c>
@@ -5860,7 +5878,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>33284</v>
       </c>
@@ -5871,7 +5889,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>33285</v>
       </c>
@@ -5882,7 +5900,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>33286</v>
       </c>
@@ -5893,7 +5911,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>33287</v>
       </c>
@@ -5904,7 +5922,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>33288</v>
       </c>
@@ -5915,7 +5933,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>33289</v>
       </c>
@@ -5926,7 +5944,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>33290</v>
       </c>
@@ -5937,7 +5955,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>33291</v>
       </c>
@@ -5948,7 +5966,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>33292</v>
       </c>
@@ -5959,7 +5977,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>33293</v>
       </c>
@@ -5970,7 +5988,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>33294</v>
       </c>
@@ -5981,7 +5999,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>33295</v>
       </c>
@@ -5992,7 +6010,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>33296</v>
       </c>
@@ -6003,7 +6021,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>33297</v>
       </c>
@@ -6014,7 +6032,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>33298</v>
       </c>
@@ -6025,7 +6043,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>33299</v>
       </c>
@@ -6036,7 +6054,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>33300</v>
       </c>
@@ -6047,7 +6065,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>33301</v>
       </c>
@@ -6058,7 +6076,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>33302</v>
       </c>
@@ -6069,7 +6087,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>33303</v>
       </c>
@@ -6080,7 +6098,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>33304</v>
       </c>
@@ -6091,7 +6109,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>33305</v>
       </c>
@@ -6102,7 +6120,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>33306</v>
       </c>
@@ -6113,7 +6131,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>33307</v>
       </c>
@@ -6124,7 +6142,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>33308</v>
       </c>
@@ -6135,7 +6153,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>33309</v>
       </c>
@@ -6146,7 +6164,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>33310</v>
       </c>
@@ -6157,7 +6175,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>33311</v>
       </c>
@@ -6168,7 +6186,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>33312</v>
       </c>
@@ -6179,7 +6197,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>33313</v>
       </c>
@@ -6190,7 +6208,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>33314</v>
       </c>
@@ -6201,7 +6219,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>33315</v>
       </c>
@@ -6212,7 +6230,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>33316</v>
       </c>
@@ -6223,7 +6241,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>33317</v>
       </c>
@@ -6234,7 +6252,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>33318</v>
       </c>
@@ -6245,7 +6263,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>33319</v>
       </c>
@@ -6256,7 +6274,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>33320</v>
       </c>
@@ -6267,7 +6285,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>33321</v>
       </c>
@@ -6278,7 +6296,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>33322</v>
       </c>
@@ -6289,7 +6307,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>33323</v>
       </c>
@@ -6300,7 +6318,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>33324</v>
       </c>
@@ -6311,7 +6329,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>33325</v>
       </c>
@@ -6322,7 +6340,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>33326</v>
       </c>
@@ -6333,7 +6351,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>33327</v>
       </c>
@@ -6344,7 +6362,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>33328</v>
       </c>
@@ -6355,7 +6373,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>33329</v>
       </c>
@@ -6366,7 +6384,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>33330</v>
       </c>
@@ -6377,7 +6395,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>33331</v>
       </c>
@@ -6388,7 +6406,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>33332</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>33333</v>
       </c>
@@ -6410,7 +6428,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>33334</v>
       </c>
@@ -6421,7 +6439,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>33335</v>
       </c>
@@ -6432,7 +6450,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>33336</v>
       </c>
@@ -6443,7 +6461,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>33337</v>
       </c>
@@ -6454,7 +6472,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>33338</v>
       </c>
@@ -6465,7 +6483,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>33339</v>
       </c>
@@ -6476,7 +6494,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>33340</v>
       </c>
@@ -6487,7 +6505,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>33341</v>
       </c>
@@ -6498,7 +6516,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>33342</v>
       </c>
@@ -6509,7 +6527,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>33343</v>
       </c>
@@ -6520,7 +6538,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>33344</v>
       </c>
@@ -6531,7 +6549,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>33345</v>
       </c>
@@ -6542,7 +6560,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>33346</v>
       </c>
@@ -6553,7 +6571,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>33347</v>
       </c>
@@ -6564,7 +6582,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>33348</v>
       </c>
@@ -6575,7 +6593,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>33349</v>
       </c>
@@ -6586,7 +6604,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>33350</v>
       </c>
@@ -6597,7 +6615,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>33351</v>
       </c>
@@ -6608,7 +6626,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>33352</v>
       </c>
@@ -6619,7 +6637,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>33353</v>
       </c>
@@ -6630,7 +6648,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>33354</v>
       </c>
@@ -6641,7 +6659,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>33355</v>
       </c>
@@ -6652,7 +6670,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>33356</v>
       </c>
@@ -6663,7 +6681,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>33357</v>
       </c>
@@ -6674,7 +6692,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>33358</v>
       </c>
@@ -6685,7 +6703,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>33359</v>
       </c>
@@ -6696,7 +6714,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>33360</v>
       </c>
@@ -6707,7 +6725,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>33361</v>
       </c>
@@ -6718,7 +6736,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>33362</v>
       </c>
@@ -6729,7 +6747,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>33363</v>
       </c>
@@ -6740,7 +6758,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>33364</v>
       </c>
@@ -6751,7 +6769,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>33365</v>
       </c>
@@ -6762,7 +6780,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>33366</v>
       </c>
@@ -6773,7 +6791,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>33367</v>
       </c>
@@ -6784,7 +6802,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>33368</v>
       </c>
@@ -6795,7 +6813,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>33369</v>
       </c>
@@ -6806,7 +6824,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>33370</v>
       </c>
@@ -6817,7 +6835,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>33371</v>
       </c>
@@ -6828,7 +6846,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>33372</v>
       </c>
@@ -6839,7 +6857,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>33373</v>
       </c>
@@ -6850,7 +6868,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>33374</v>
       </c>
@@ -6861,7 +6879,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>33375</v>
       </c>
@@ -6872,7 +6890,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>33376</v>
       </c>
@@ -6883,7 +6901,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>33377</v>
       </c>
@@ -6894,7 +6912,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>33378</v>
       </c>
@@ -6905,7 +6923,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>33379</v>
       </c>
@@ -6914,7 +6932,7 @@
       </c>
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>33380</v>
       </c>
@@ -6925,7 +6943,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>33381</v>
       </c>
@@ -6936,7 +6954,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>33382</v>
       </c>
@@ -6947,7 +6965,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>33383</v>
       </c>
@@ -6958,7 +6976,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>33384</v>
       </c>
@@ -6969,7 +6987,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>33385</v>
       </c>
@@ -6980,7 +6998,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>33386</v>
       </c>
@@ -6991,7 +7009,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>33387</v>
       </c>
@@ -7002,7 +7020,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>33388</v>
       </c>
@@ -7013,7 +7031,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>33389</v>
       </c>
@@ -7024,7 +7042,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>33390</v>
       </c>
@@ -7035,7 +7053,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>33391</v>
       </c>
@@ -7046,7 +7064,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>33392</v>
       </c>
@@ -7057,7 +7075,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>33393</v>
       </c>
@@ -7068,7 +7086,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>33394</v>
       </c>
@@ -7079,7 +7097,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>33395</v>
       </c>
@@ -7090,7 +7108,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>33396</v>
       </c>
@@ -7101,7 +7119,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>33397</v>
       </c>
@@ -7112,7 +7130,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>33398</v>
       </c>
@@ -7123,7 +7141,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>33399</v>
       </c>
@@ -7134,7 +7152,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>33400</v>
       </c>
@@ -7145,7 +7163,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>33401</v>
       </c>
@@ -7156,7 +7174,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>33402</v>
       </c>
@@ -7167,7 +7185,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>33403</v>
       </c>
@@ -7178,7 +7196,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>33404</v>
       </c>
@@ -7189,7 +7207,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>33405</v>
       </c>
@@ -7200,7 +7218,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>33406</v>
       </c>
@@ -7211,7 +7229,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>33407</v>
       </c>
@@ -7222,7 +7240,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>33408</v>
       </c>
@@ -7233,7 +7251,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>33409</v>
       </c>
@@ -7244,7 +7262,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>33410</v>
       </c>
@@ -7255,7 +7273,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>33411</v>
       </c>
@@ -7266,7 +7284,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>33412</v>
       </c>
@@ -7277,7 +7295,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>33413</v>
       </c>
@@ -7288,7 +7306,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>33414</v>
       </c>
@@ -7297,7 +7315,7 @@
       </c>
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>33415</v>
       </c>
@@ -7308,7 +7326,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>33416</v>
       </c>
@@ -7319,7 +7337,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>33417</v>
       </c>
@@ -7330,7 +7348,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>33418</v>
       </c>
@@ -7341,7 +7359,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>33419</v>
       </c>
@@ -7352,7 +7370,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>33420</v>
       </c>
@@ -7363,7 +7381,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>33421</v>
       </c>
@@ -7374,7 +7392,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>33422</v>
       </c>
@@ -7385,7 +7403,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>33423</v>
       </c>
@@ -7396,7 +7414,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>33424</v>
       </c>
@@ -7407,7 +7425,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>33425</v>
       </c>
@@ -7418,7 +7436,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>33426</v>
       </c>
@@ -7429,7 +7447,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>33427</v>
       </c>
@@ -7440,7 +7458,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>33428</v>
       </c>
@@ -7451,7 +7469,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>33429</v>
       </c>
@@ -7462,7 +7480,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>33430</v>
       </c>
@@ -7473,7 +7491,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>33431</v>
       </c>
@@ -7484,7 +7502,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>33432</v>
       </c>
@@ -7495,7 +7513,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>33433</v>
       </c>
@@ -7506,7 +7524,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>33434</v>
       </c>
@@ -7517,7 +7535,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>33435</v>
       </c>
@@ -7528,7 +7546,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>33436</v>
       </c>
@@ -7539,7 +7557,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>33437</v>
       </c>
@@ -7550,7 +7568,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>33438</v>
       </c>
@@ -7561,7 +7579,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>33439</v>
       </c>
@@ -7572,7 +7590,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>33440</v>
       </c>
@@ -7583,7 +7601,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>33441</v>
       </c>
@@ -7594,7 +7612,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>33442</v>
       </c>
@@ -7605,7 +7623,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>33443</v>
       </c>
@@ -7616,7 +7634,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>33444</v>
       </c>
@@ -7627,7 +7645,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>33445</v>
       </c>
@@ -7638,7 +7656,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>33446</v>
       </c>
@@ -7649,7 +7667,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>33447</v>
       </c>
@@ -7660,7 +7678,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>33448</v>
       </c>
@@ -7671,7 +7689,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>33449</v>
       </c>
@@ -7682,7 +7700,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>33450</v>
       </c>
@@ -7693,7 +7711,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>33451</v>
       </c>
@@ -7704,7 +7722,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>33452</v>
       </c>
@@ -7715,7 +7733,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>33453</v>
       </c>
@@ -7726,7 +7744,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>33454</v>
       </c>
@@ -7737,7 +7755,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>33455</v>
       </c>
@@ -7748,7 +7766,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>33456</v>
       </c>
@@ -7759,7 +7777,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>33457</v>
       </c>
@@ -7770,7 +7788,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>33458</v>
       </c>
@@ -7781,7 +7799,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>33459</v>
       </c>
@@ -7792,7 +7810,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>33460</v>
       </c>
@@ -7803,7 +7821,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>33461</v>
       </c>
@@ -7814,7 +7832,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>33462</v>
       </c>
@@ -7825,7 +7843,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>33463</v>
       </c>
@@ -7836,7 +7854,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>33464</v>
       </c>
@@ -7847,7 +7865,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>33465</v>
       </c>
@@ -7858,7 +7876,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>33466</v>
       </c>
@@ -7869,7 +7887,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>33467</v>
       </c>
@@ -7880,7 +7898,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>33468</v>
       </c>
@@ -7891,7 +7909,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>33469</v>
       </c>
@@ -7902,7 +7920,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>33470</v>
       </c>
@@ -7913,7 +7931,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>33471</v>
       </c>
@@ -7924,7 +7942,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>33472</v>
       </c>
@@ -7935,7 +7953,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>33473</v>
       </c>
@@ -7946,7 +7964,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>33474</v>
       </c>
@@ -7957,7 +7975,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>33475</v>
       </c>
@@ -7968,7 +7986,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>33476</v>
       </c>
@@ -7979,7 +7997,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>33477</v>
       </c>
@@ -7990,7 +8008,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>33478</v>
       </c>
@@ -8001,7 +8019,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>33479</v>
       </c>
@@ -8012,7 +8030,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>33480</v>
       </c>
@@ -8023,7 +8041,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>33481</v>
       </c>
@@ -8034,7 +8052,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>33482</v>
       </c>
@@ -8045,7 +8063,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>33483</v>
       </c>
@@ -8056,7 +8074,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>33484</v>
       </c>
@@ -8067,7 +8085,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>33485</v>
       </c>
@@ -8078,7 +8096,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>33486</v>
       </c>
@@ -8089,7 +8107,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>33487</v>
       </c>
@@ -8100,7 +8118,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>33488</v>
       </c>
@@ -8111,7 +8129,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>33489</v>
       </c>
@@ -8122,7 +8140,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>33490</v>
       </c>
@@ -8133,7 +8151,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>33491</v>
       </c>
@@ -8144,7 +8162,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>33492</v>
       </c>
@@ -8155,7 +8173,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>33493</v>
       </c>
@@ -8166,7 +8184,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>33494</v>
       </c>
@@ -8177,7 +8195,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>33495</v>
       </c>
@@ -8188,7 +8206,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>33496</v>
       </c>
@@ -8199,7 +8217,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>33497</v>
       </c>
@@ -8210,7 +8228,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>33498</v>
       </c>
@@ -8221,7 +8239,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>33499</v>
       </c>
@@ -8232,7 +8250,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>33500</v>
       </c>
@@ -8243,7 +8261,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>33501</v>
       </c>
@@ -8254,7 +8272,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>33502</v>
       </c>
@@ -8265,7 +8283,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>33503</v>
       </c>
@@ -8276,7 +8294,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>33504</v>
       </c>
@@ -8287,7 +8305,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>33505</v>
       </c>
@@ -8298,7 +8316,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>33506</v>
       </c>
@@ -8309,7 +8327,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>33507</v>
       </c>
@@ -8320,7 +8338,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>33508</v>
       </c>
@@ -8331,7 +8349,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>33509</v>
       </c>
@@ -8342,7 +8360,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>33510</v>
       </c>
@@ -8353,7 +8371,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>33511</v>
       </c>
@@ -8364,7 +8382,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>33512</v>
       </c>
@@ -8375,7 +8393,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>33513</v>
       </c>
@@ -8386,7 +8404,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>33514</v>
       </c>
@@ -8397,7 +8415,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>33515</v>
       </c>
@@ -8408,7 +8426,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>33516</v>
       </c>
@@ -8419,7 +8437,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>33517</v>
       </c>
@@ -8430,7 +8448,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>33518</v>
       </c>
@@ -8441,7 +8459,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>33519</v>
       </c>
@@ -8452,7 +8470,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>33520</v>
       </c>
@@ -8463,7 +8481,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>33521</v>
       </c>
@@ -8474,7 +8492,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>33522</v>
       </c>
@@ -8485,7 +8503,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>33523</v>
       </c>
@@ -8496,7 +8514,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>33524</v>
       </c>
@@ -8507,7 +8525,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>33525</v>
       </c>
@@ -8518,7 +8536,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>33526</v>
       </c>
@@ -8529,7 +8547,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>33527</v>
       </c>
@@ -8540,7 +8558,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>33528</v>
       </c>
@@ -8551,7 +8569,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>33529</v>
       </c>
@@ -8562,7 +8580,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>33530</v>
       </c>
@@ -8573,7 +8591,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>33531</v>
       </c>
@@ -8584,7 +8602,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>33532</v>
       </c>
@@ -8595,7 +8613,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>33533</v>
       </c>
@@ -8606,7 +8624,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>33534</v>
       </c>
@@ -8617,7 +8635,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>33535</v>
       </c>
@@ -8628,7 +8646,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>33536</v>
       </c>
@@ -8639,7 +8657,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>33537</v>
       </c>
@@ -8650,7 +8668,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>33538</v>
       </c>
@@ -8661,7 +8679,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>33539</v>
       </c>
@@ -8672,7 +8690,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>33540</v>
       </c>
@@ -8683,7 +8701,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>33541</v>
       </c>
@@ -8694,7 +8712,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>33542</v>
       </c>
@@ -8705,7 +8723,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>33543</v>
       </c>
@@ -8716,7 +8734,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>33544</v>
       </c>
@@ -8727,7 +8745,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>33545</v>
       </c>
@@ -8738,7 +8756,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>33546</v>
       </c>
@@ -8749,7 +8767,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>33547</v>
       </c>
@@ -8760,7 +8778,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>33548</v>
       </c>
@@ -8771,7 +8789,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>33549</v>
       </c>
@@ -8782,7 +8800,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>33550</v>
       </c>
@@ -8793,7 +8811,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>33551</v>
       </c>
@@ -8804,7 +8822,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>33552</v>
       </c>
@@ -8815,7 +8833,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>33553</v>
       </c>
@@ -8826,7 +8844,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>33554</v>
       </c>
@@ -8835,7 +8853,7 @@
       </c>
       <c r="C555" s="1"/>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>33555</v>
       </c>
@@ -8846,7 +8864,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>33556</v>
       </c>
@@ -8857,7 +8875,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>33557</v>
       </c>
@@ -8868,7 +8886,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>33558</v>
       </c>
@@ -8879,7 +8897,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>33559</v>
       </c>
@@ -8890,7 +8908,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>33560</v>
       </c>
@@ -8901,7 +8919,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>33561</v>
       </c>
@@ -8912,7 +8930,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>33562</v>
       </c>
@@ -8923,7 +8941,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>33563</v>
       </c>
@@ -8934,7 +8952,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>33564</v>
       </c>
@@ -8945,7 +8963,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>33565</v>
       </c>
@@ -8956,7 +8974,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>33566</v>
       </c>
@@ -8967,7 +8985,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>33567</v>
       </c>
@@ -8978,7 +8996,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>33568</v>
       </c>
@@ -8989,7 +9007,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>33569</v>
       </c>
@@ -9000,7 +9018,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>33570</v>
       </c>
@@ -9011,7 +9029,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>33571</v>
       </c>
@@ -9022,7 +9040,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>33572</v>
       </c>
@@ -9033,7 +9051,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>33573</v>
       </c>
@@ -9044,7 +9062,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>33574</v>
       </c>
@@ -9055,7 +9073,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>33575</v>
       </c>
@@ -9066,7 +9084,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>33576</v>
       </c>
@@ -9077,7 +9095,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>33577</v>
       </c>
@@ -9088,7 +9106,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>33578</v>
       </c>
@@ -9099,7 +9117,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>33579</v>
       </c>
@@ -9110,7 +9128,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>33580</v>
       </c>
@@ -9121,7 +9139,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>33581</v>
       </c>
@@ -9132,7 +9150,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>33582</v>
       </c>
@@ -9143,7 +9161,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>33583</v>
       </c>
@@ -9154,7 +9172,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>33584</v>
       </c>
@@ -9165,7 +9183,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>33585</v>
       </c>
@@ -9176,7 +9194,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>33586</v>
       </c>
@@ -9187,7 +9205,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>33587</v>
       </c>
@@ -9198,7 +9216,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>33588</v>
       </c>
@@ -9209,7 +9227,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>33589</v>
       </c>
@@ -9220,7 +9238,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>33590</v>
       </c>
@@ -9231,7 +9249,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>33591</v>
       </c>
@@ -9242,7 +9260,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>33592</v>
       </c>
@@ -9253,7 +9271,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>33593</v>
       </c>
@@ -9264,7 +9282,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>33594</v>
       </c>
@@ -9275,7 +9293,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>33595</v>
       </c>
@@ -9286,7 +9304,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>33596</v>
       </c>
@@ -9295,7 +9313,7 @@
       </c>
       <c r="C597" s="1"/>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>33597</v>
       </c>
@@ -9306,7 +9324,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>33598</v>
       </c>
@@ -9317,7 +9335,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>33599</v>
       </c>
@@ -9328,7 +9346,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>33600</v>
       </c>
@@ -9339,7 +9357,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>33601</v>
       </c>
@@ -9350,7 +9368,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>33602</v>
       </c>
@@ -9361,7 +9379,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>33603</v>
       </c>
@@ -9372,7 +9390,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>33604</v>
       </c>
@@ -9383,7 +9401,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>33605</v>
       </c>
@@ -9394,7 +9412,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>33606</v>
       </c>
@@ -9405,7 +9423,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>33607</v>
       </c>
@@ -9416,7 +9434,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>33608</v>
       </c>
@@ -9427,7 +9445,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>33609</v>
       </c>
@@ -9438,7 +9456,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>33610</v>
       </c>
@@ -9449,7 +9467,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>33611</v>
       </c>
@@ -9460,7 +9478,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>33612</v>
       </c>
@@ -9471,7 +9489,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>33613</v>
       </c>
@@ -9482,7 +9500,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>33614</v>
       </c>
@@ -9493,7 +9511,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>33615</v>
       </c>
@@ -9504,7 +9522,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>33616</v>
       </c>
@@ -9515,7 +9533,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>33617</v>
       </c>
@@ -9526,7 +9544,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>33618</v>
       </c>
@@ -9537,7 +9555,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>33619</v>
       </c>
@@ -9548,7 +9566,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>33620</v>
       </c>
@@ -9559,7 +9577,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>33621</v>
       </c>
@@ -9570,7 +9588,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>33622</v>
       </c>
@@ -9579,7 +9597,7 @@
       </c>
       <c r="C623" s="1"/>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>33623</v>
       </c>
@@ -9590,7 +9608,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>33624</v>
       </c>
@@ -9601,7 +9619,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>33625</v>
       </c>
@@ -9612,7 +9630,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>33626</v>
       </c>
@@ -9623,7 +9641,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>33627</v>
       </c>
@@ -9634,7 +9652,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>33628</v>
       </c>
@@ -9645,7 +9663,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>33629</v>
       </c>
@@ -9656,7 +9674,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>33630</v>
       </c>
@@ -9667,7 +9685,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>33631</v>
       </c>
@@ -9678,7 +9696,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>33632</v>
       </c>
@@ -9689,7 +9707,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>33633</v>
       </c>
@@ -9700,7 +9718,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>33634</v>
       </c>
